--- a/MercuryTours/Resources/datapool/convenios.xlsx
+++ b/MercuryTours/Resources/datapool/convenios.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>numero convenio</t>
   </si>
@@ -155,9 +155,6 @@
     <t>contraseña</t>
   </si>
   <si>
-    <t>1092.168.0.1</t>
-  </si>
-  <si>
     <t>10.0.2.15</t>
   </si>
   <si>
@@ -192,6 +189,18 @@
   </si>
   <si>
     <t>123</t>
+  </si>
+  <si>
+    <t>Nombre lista cliente</t>
+  </si>
+  <si>
+    <t>tigoUne</t>
+  </si>
+  <si>
+    <t>movistar</t>
+  </si>
+  <si>
+    <t>192.168.0.1</t>
   </si>
 </sst>
 </file>
@@ -534,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I18"/>
+  <dimension ref="A2:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,13 +776,13 @@
         <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -781,13 +790,13 @@
         <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -799,13 +808,13 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
         <v>52</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>53</v>
-      </c>
-      <c r="D16" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -813,13 +822,13 @@
         <v>44</v>
       </c>
       <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
         <v>55</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>56</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -827,18 +836,32 @@
         <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MercuryTours/Resources/datapool/convenios.xlsx
+++ b/MercuryTours/Resources/datapool/convenios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="5070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="4740"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>numero convenio</t>
   </si>
@@ -201,6 +201,42 @@
   </si>
   <si>
     <t>192.168.0.1</t>
+  </si>
+  <si>
+    <t>Efigas</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>7709998002425</t>
+  </si>
+  <si>
+    <t>192.141.2.1</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Efigas/recuados</t>
+  </si>
+  <si>
+    <t>administrador</t>
+  </si>
+  <si>
+    <t>efigas</t>
   </si>
 </sst>
 </file>
@@ -545,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,6 +632,9 @@
       <c r="D3" t="s">
         <v>31</v>
       </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -615,7 +654,9 @@
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -634,7 +675,9 @@
       <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -653,7 +696,9 @@
       <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -672,7 +717,9 @@
       <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -691,7 +738,9 @@
       <c r="D9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -710,7 +759,9 @@
       <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -729,7 +780,9 @@
       <c r="D11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -748,7 +801,9 @@
       <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -767,7 +822,9 @@
       <c r="D13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
@@ -784,6 +841,9 @@
       <c r="D14" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -798,7 +858,9 @@
       <c r="D15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -816,6 +878,9 @@
       <c r="D16" t="s">
         <v>53</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -830,6 +895,9 @@
       <c r="D17" t="s">
         <v>56</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -844,7 +912,9 @@
       <c r="D18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -861,6 +931,9 @@
       </c>
       <c r="D19" t="s">
         <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
